--- a/report/src/main/resources/excelTemplates/报表_template.xlsx
+++ b/report/src/main/resources/excelTemplates/报表_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3FE5E0-DE77-4D70-8ADB-DBFC092F33D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3051B76-4D54-43CE-973F-F91A2C656D9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4540" yWindow="3560" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,30 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C9D685E1-2D01-4ABE-A72B-B38A14BACEB0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell="U3")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{910CA5B6-22EA-4BE5-ACD5-10708367A211}">
       <text>
         <r>
@@ -42,7 +66,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:out(var="reportName" lastCell="C3")</t>
+jx:out(var="reportName" lastCell="D3")</t>
         </r>
       </text>
     </comment>
@@ -660,7 +684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +750,12 @@
       <color theme="1"/>
       <name val="仿宋"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1104,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:U7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1148,7 @@
     <col min="12" max="23" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1130,7 +1160,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="2:21" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1144,7 +1174,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,10 +1236,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>

--- a/report/src/main/resources/excelTemplates/报表_template.xlsx
+++ b/report/src/main/resources/excelTemplates/报表_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3051B76-4D54-43CE-973F-F91A2C656D9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DC9AE4-2132-4DC0-A942-CA871A4A7905}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="3560" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,90 +20,15 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C9D685E1-2D01-4ABE-A72B-B38A14BACEB0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="U3")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{910CA5B6-22EA-4BE5-ACD5-10708367A211}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:out(var="reportName" lastCell="D3")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{ED1EE4DC-7C41-4764-B0D3-3DE3BB6CFC22}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:out(var="COL1" lastCell="J4")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{94BBA3BD-4D84-46F1-B40A-F7E1DA983B4D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{ED1EE4DC-7C41-4764-B0D3-3DE3BB6CFC22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
@@ -117,11 +42,37 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>jx:area(lastCell="U3")
+jx:out(var="COL1" lastCell="J4")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{94BBA3BD-4D84-46F1-B40A-F7E1DA983B4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>jx:out(var="COL2" lastCell="J4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{A7367AED-0119-4775-8474-5B8D53917DD7}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A7367AED-0119-4775-8474-5B8D53917DD7}">
       <text>
         <r>
           <rPr>
@@ -147,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{88EB17E7-2838-45B2-9DBA-D754192F8E34}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{88EB17E7-2838-45B2-9DBA-D754192F8E34}">
       <text>
         <r>
           <rPr>
@@ -173,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{CB624CDC-A082-4B21-BA97-29859F2A985B}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{CB624CDC-A082-4B21-BA97-29859F2A985B}">
       <text>
         <r>
           <rPr>
@@ -199,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{0F83F50E-E777-4901-9B06-9D4A98146975}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{0F83F50E-E777-4901-9B06-9D4A98146975}">
       <text>
         <r>
           <rPr>
@@ -225,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{7EF34A10-21C1-48B1-9120-E5B7AE38FF65}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7EF34A10-21C1-48B1-9120-E5B7AE38FF65}">
       <text>
         <r>
           <rPr>
@@ -251,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{008E18E2-5C61-4F83-A8EF-60E0C9ECF40E}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{008E18E2-5C61-4F83-A8EF-60E0C9ECF40E}">
       <text>
         <r>
           <rPr>
@@ -277,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{428EE717-2511-4A31-BFC5-42E932088749}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{428EE717-2511-4A31-BFC5-42E932088749}">
       <text>
         <r>
           <rPr>
@@ -303,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{0AE93D12-5DD5-4E53-8689-D227BA476B5F}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0AE93D12-5DD5-4E53-8689-D227BA476B5F}">
       <text>
         <r>
           <rPr>
@@ -329,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{C427E09F-3639-4A31-97A6-0E87E0E5FE18}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{C427E09F-3639-4A31-97A6-0E87E0E5FE18}">
       <text>
         <r>
           <rPr>
@@ -355,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{4056F6C1-4D0E-4D84-BAB7-AF08600ED896}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{4056F6C1-4D0E-4D84-BAB7-AF08600ED896}">
       <text>
         <r>
           <rPr>
@@ -381,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{173D4B1D-EF23-4EA9-9718-EBDB1BF52E50}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{173D4B1D-EF23-4EA9-9718-EBDB1BF52E50}">
       <text>
         <r>
           <rPr>
@@ -407,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{A565274C-E5C2-4A43-A1F3-0E1895E39CD7}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{A565274C-E5C2-4A43-A1F3-0E1895E39CD7}">
       <text>
         <r>
           <rPr>
@@ -433,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{2C3DC302-CD95-4545-830B-ADB8B59DA134}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{2C3DC302-CD95-4545-830B-ADB8B59DA134}">
       <text>
         <r>
           <rPr>
@@ -459,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{19F2DA79-E7F2-44FA-A31D-4FB77C4C7D21}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{19F2DA79-E7F2-44FA-A31D-4FB77C4C7D21}">
       <text>
         <r>
           <rPr>
@@ -485,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{A1211676-D55A-4EB2-8EBA-5AC16F470758}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{A1211676-D55A-4EB2-8EBA-5AC16F470758}">
       <text>
         <r>
           <rPr>
@@ -511,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{DA062846-EDF4-4EE5-B986-9D24CE412C31}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{DA062846-EDF4-4EE5-B986-9D24CE412C31}">
       <text>
         <r>
           <rPr>
@@ -537,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{34269AD3-97C8-47AB-B80A-2C58755D7713}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{34269AD3-97C8-47AB-B80A-2C58755D7713}">
       <text>
         <r>
           <rPr>
@@ -563,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{9247AD50-0575-409E-ACC8-6BF0A0AE3B96}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{9247AD50-0575-409E-ACC8-6BF0A0AE3B96}">
       <text>
         <r>
           <rPr>
@@ -594,7 +545,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>${COL1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -673,10 +624,6 @@
   </si>
   <si>
     <t>${COL20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${reportName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +631,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,14 +645,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -731,28 +670,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -779,22 +696,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,116 +1042,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="10.6328125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="10.6328125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" style="1" customWidth="1"/>
-    <col min="12" max="23" width="10.6328125" customWidth="1"/>
+    <col min="1" max="6" width="10.6328125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.6328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" style="1" customWidth="1"/>
+    <col min="11" max="22" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/report/src/main/resources/excelTemplates/报表_template.xlsx
+++ b/report/src/main/resources/excelTemplates/报表_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DC9AE4-2132-4DC0-A942-CA871A4A7905}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B6D30B-052A-48FB-B0C3-5E24816C1D30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,14 +696,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1045,7 +1046,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1054,8 @@
     <col min="1" max="6" width="10.6328125" style="1" customWidth="1"/>
     <col min="7" max="9" width="10.6328125" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.6328125" style="1" customWidth="1"/>
-    <col min="11" max="22" width="10.6328125" customWidth="1"/>
+    <col min="11" max="22" width="10.6328125" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1087,34 +1089,34 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
